--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>base</t>
   </si>
@@ -49,12 +49,37 @@
   <si>
     <t>avg tt</t>
   </si>
+  <si>
+    <t>% tt</t>
+  </si>
+  <si>
+    <t>% thru</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t>Traditional AD</t>
+  </si>
+  <si>
+    <t>V2I AD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,10 +111,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -91,12 +123,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBD5600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -106,6 +149,3288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874017"/>
+          <c:y val="7.7622204899582214E-2"/>
+          <c:w val="0.82598350561630018"/>
+          <c:h val="0.67976982298792177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traditional AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41322314049587133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6018371872030337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1808576755748947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5534572037770402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4165159734779953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21D6-462C-9F75-4134A333E574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2I AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BD5600"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4011443102352339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3123218245169501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5425730267246847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8684130368565302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.737191078963241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21D6-462C-9F75-4134A333E574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="304628224"/>
+        <c:axId val="304626912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304628224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304626912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304626912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304628224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30062235111606317"/>
+          <c:y val="0.91279549455650633"/>
+          <c:w val="0.39785236220472447"/>
+          <c:h val="6.8288130650335385E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0334054313866858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0938743038981702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92576718669638258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7647953750190171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5978334461746784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39A6-4C1F-ACD6-9A2F65B8060C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.759276879162702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82628369073381869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0553762527603192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5248916130961279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3194722111155539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39A6-4C1F-ACD6-9A2F65B8060C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="304628224"/>
+        <c:axId val="304626912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304628224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304626912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304626912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Decrease in Travel Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304628224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874017"/>
+          <c:y val="7.7622204899582214E-2"/>
+          <c:w val="0.82598350561630018"/>
+          <c:h val="0.67976982298792177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traditional AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$28:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$28:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90909090909090517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0010010010010011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87627059235892046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81589216034055034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1978221415608026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F177-404D-A55A-315DAB5C7066}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2I AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BD5600"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$28:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$28:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0010010010010011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23809523809523422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3551077136900547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87966220971147091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64562410329986064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F177-404D-A55A-315DAB5C7066}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="304628224"/>
+        <c:axId val="304626912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304628224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304626912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304626912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4966973914990483E-2"/>
+              <c:y val="0.3405659832009319"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304628224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30062235111606317"/>
+          <c:y val="0.91279549455650633"/>
+          <c:w val="0.39785236220472447"/>
+          <c:h val="6.8288130650335385E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587374</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AAEA9C-0B56-45E0-AD85-40A62A50D0FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E16FDA-4863-43A6-AE35-F7F02373D6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D1AE6A-8841-422A-90D1-61A2892958B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,26 +3730,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -432,38 +3766,100 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50</v>
       </c>
+      <c r="M3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <f>D5</f>
+        <v>0.41322314049587133</v>
+      </c>
+      <c r="O3">
+        <f>D6</f>
+        <v>3.4011443102352339</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
+        <f>F5</f>
+        <v>1.0334054313866858</v>
+      </c>
+      <c r="S3">
+        <f>F6</f>
+        <v>2.759276879162702</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
         <v>314.60000000000002</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4161</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>297</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>5118</v>
       </c>
+      <c r="M4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N4">
+        <f>D9</f>
+        <v>0.6018371872030337</v>
+      </c>
+      <c r="O4">
+        <f>D10</f>
+        <v>2.3123218245169501</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4">
+        <f>F9</f>
+        <v>1.0938743038981702</v>
+      </c>
+      <c r="S4">
+        <f>F10</f>
+        <v>0.82628369073381869</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -471,16 +3867,50 @@
         <v>313.3</v>
       </c>
       <c r="D5">
+        <f>(C4-C5)/C4*100</f>
+        <v>0.41322314049587133</v>
+      </c>
+      <c r="E5">
         <v>4204</v>
       </c>
       <c r="F5">
+        <f>ABS(E4-E5)/E4*100</f>
+        <v>1.0334054313866858</v>
+      </c>
+      <c r="H5">
         <v>299.7</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <f>ABS(H4-H5)/H4*100</f>
+        <v>0.90909090909090517</v>
+      </c>
+      <c r="J5">
         <v>5118</v>
       </c>
+      <c r="M5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N5">
+        <f>D13</f>
+        <v>1.1808576755748947</v>
+      </c>
+      <c r="O5">
+        <f>D14</f>
+        <v>3.5425730267246847</v>
+      </c>
+      <c r="Q5">
+        <v>70</v>
+      </c>
+      <c r="R5">
+        <f>F13</f>
+        <v>0.92576718669638258</v>
+      </c>
+      <c r="S5">
+        <f>F14</f>
+        <v>2.0553762527603192</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -488,38 +3918,103 @@
         <v>303.89999999999998</v>
       </c>
       <c r="D6">
+        <f>(C4-C6)/C4*100</f>
+        <v>3.4011443102352339</v>
+      </c>
+      <c r="E6">
         <v>4320</v>
       </c>
       <c r="F6">
+        <f>ABS(E5-E6)/E5*100</f>
+        <v>2.759276879162702</v>
+      </c>
+      <c r="H6">
         <v>302.7</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <f>ABS(H5-H6)/H5*100</f>
+        <v>1.0010010010010011</v>
+      </c>
+      <c r="J6">
         <v>5118</v>
       </c>
+      <c r="M6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <f>D17</f>
+        <v>1.5534572037770402</v>
+      </c>
+      <c r="O6">
+        <f>D18</f>
+        <v>3.8684130368565302</v>
+      </c>
+      <c r="Q6">
+        <v>80</v>
+      </c>
+      <c r="R6">
+        <f>F17</f>
+        <v>1.7647953750190171</v>
+      </c>
+      <c r="S6">
+        <f>F18</f>
+        <v>1.5248916130961279</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60</v>
       </c>
+      <c r="M7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N7">
+        <f>D21</f>
+        <v>1.4165159734779953</v>
+      </c>
+      <c r="O7">
+        <f>D22</f>
+        <v>3.737191078963241</v>
+      </c>
+      <c r="Q7">
+        <v>90</v>
+      </c>
+      <c r="R7">
+        <f>F21</f>
+        <v>1.5978334461746784</v>
+      </c>
+      <c r="S7">
+        <f>F22</f>
+        <v>1.3194722111155539</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8">
         <v>315.7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5028</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>291.8</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>4105</v>
       </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -527,16 +4022,37 @@
         <v>313.8</v>
       </c>
       <c r="D9">
+        <f>(C8-C9)/C8*100</f>
+        <v>0.6018371872030337</v>
+      </c>
+      <c r="E9">
         <v>5083</v>
       </c>
       <c r="F9">
+        <f t="shared" ref="F9:F10" si="0">ABS(E8-E9)/E8*100</f>
+        <v>1.0938743038981702</v>
+      </c>
+      <c r="H9">
         <v>294</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <f t="shared" ref="I9:I10" si="1">ABS(H8-H9)/H8*100</f>
+        <v>0.75394105551747381</v>
+      </c>
+      <c r="J9">
         <v>4105</v>
       </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -544,38 +4060,77 @@
         <v>308.39999999999998</v>
       </c>
       <c r="D10">
+        <f>(C8-C10)/C8*100</f>
+        <v>2.3123218245169501</v>
+      </c>
+      <c r="E10">
         <v>5125</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.82628369073381869</v>
+      </c>
+      <c r="H10">
         <v>294.7</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.23809523809523422</v>
+      </c>
+      <c r="J10">
         <v>4105</v>
       </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>70</v>
       </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
         <v>321.8</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5833</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>285.3</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>3116</v>
       </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -583,16 +4138,37 @@
         <v>318</v>
       </c>
       <c r="D13">
+        <f>(C12-C13)/C12*100</f>
+        <v>1.1808576755748947</v>
+      </c>
+      <c r="E13">
         <v>5887</v>
       </c>
       <c r="F13">
+        <f t="shared" ref="F13:F14" si="2">ABS(E12-E13)/E12*100</f>
+        <v>0.92576718669638258</v>
+      </c>
+      <c r="H13">
         <v>287.8</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <f t="shared" ref="I13:I14" si="3">ABS(H12-H13)/H12*100</f>
+        <v>0.87627059235892046</v>
+      </c>
+      <c r="J13">
         <v>3116</v>
       </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -600,38 +4176,77 @@
         <v>310.39999999999998</v>
       </c>
       <c r="D14">
+        <f>(C12-C14)/C12*100</f>
+        <v>3.5425730267246847</v>
+      </c>
+      <c r="E14">
         <v>6008</v>
       </c>
       <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2.0553762527603192</v>
+      </c>
+      <c r="H14">
         <v>291.7</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1.3551077136900547</v>
+      </c>
+      <c r="J14">
         <v>3116</v>
       </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>80</v>
       </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
         <v>328.3</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>6573</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>281.89999999999998</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>2078</v>
       </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -639,16 +4254,37 @@
         <v>323.2</v>
       </c>
       <c r="D17">
+        <f>(C16-C17)/C16*100</f>
+        <v>1.5534572037770402</v>
+      </c>
+      <c r="E17">
         <v>6689</v>
       </c>
       <c r="F17">
+        <f t="shared" ref="F17:F18" si="4">ABS(E16-E17)/E16*100</f>
+        <v>1.7647953750190171</v>
+      </c>
+      <c r="H17">
         <v>284.2</v>
       </c>
-      <c r="G17">
+      <c r="I17">
+        <f t="shared" ref="I17:I18" si="5">ABS(H16-H17)/H16*100</f>
+        <v>0.81589216034055034</v>
+      </c>
+      <c r="J17">
         <v>2078</v>
       </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -656,38 +4292,77 @@
         <v>315.60000000000002</v>
       </c>
       <c r="D18">
+        <f>(C16-C18)/C16*100</f>
+        <v>3.8684130368565302</v>
+      </c>
+      <c r="E18">
         <v>6791</v>
       </c>
       <c r="F18">
+        <f t="shared" si="4"/>
+        <v>1.5248916130961279</v>
+      </c>
+      <c r="H18">
         <v>286.7</v>
       </c>
-      <c r="G18">
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>0.87966220971147091</v>
+      </c>
+      <c r="J18">
         <v>2078</v>
       </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90</v>
       </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
         <v>331.8</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>7385</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>275.5</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>1017</v>
       </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -695,16 +4370,37 @@
         <v>327.10000000000002</v>
       </c>
       <c r="D21">
+        <f>(C20-C21)/C20*100</f>
+        <v>1.4165159734779953</v>
+      </c>
+      <c r="E21">
         <v>7503</v>
       </c>
       <c r="F21">
+        <f t="shared" ref="F21:F22" si="6">ABS(E20-E21)/E20*100</f>
+        <v>1.5978334461746784</v>
+      </c>
+      <c r="H21">
         <v>278.8</v>
       </c>
-      <c r="G21">
+      <c r="I21">
+        <f t="shared" ref="I21:I22" si="7">ABS(H20-H21)/H20*100</f>
+        <v>1.1978221415608026</v>
+      </c>
+      <c r="J21">
         <v>1017</v>
       </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -712,20 +4408,335 @@
         <v>319.39999999999998</v>
       </c>
       <c r="D22">
+        <f>(C20-C22)/C20*100</f>
+        <v>3.737191078963241</v>
+      </c>
+      <c r="E22">
         <v>7602</v>
       </c>
       <c r="F22">
+        <f t="shared" si="6"/>
+        <v>1.3194722111155539</v>
+      </c>
+      <c r="H22">
         <v>280.60000000000002</v>
       </c>
-      <c r="G22">
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0.64562410329986064</v>
+      </c>
+      <c r="J22">
         <v>1017</v>
       </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N28">
+        <f>I5</f>
+        <v>0.90909090909090517</v>
+      </c>
+      <c r="O28">
+        <f>I6</f>
+        <v>1.0010010010010011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M29" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N29">
+        <f>I6</f>
+        <v>1.0010010010010011</v>
+      </c>
+      <c r="O29">
+        <f>I10</f>
+        <v>0.23809523809523422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M30" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N30">
+        <f>I13</f>
+        <v>0.87627059235892046</v>
+      </c>
+      <c r="O30">
+        <f>I14</f>
+        <v>1.3551077136900547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N31">
+        <f>I17</f>
+        <v>0.81589216034055034</v>
+      </c>
+      <c r="O31">
+        <f>I18</f>
+        <v>0.87966220971147091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M32" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N32">
+        <f>I21</f>
+        <v>1.1978221415608026</v>
+      </c>
+      <c r="O32">
+        <f>I22</f>
+        <v>0.64562410329986064</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>base</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>V2I AD</t>
+  </si>
+  <si>
+    <t>% stdev</t>
+  </si>
+  <si>
+    <t>stdev tt</t>
   </si>
 </sst>
 </file>
@@ -123,11 +129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,7 +193,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -210,7 +216,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -234,7 +240,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$7</c:f>
+              <c:f>Sheet1!$P$3:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -267,7 +273,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -288,7 +294,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -312,7 +318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:f>Sheet1!$Q$3:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -697,7 +703,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
+              <c:f>Sheet1!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -718,7 +724,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -742,7 +748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$7</c:f>
+              <c:f>Sheet1!$T$3:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -775,7 +781,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$2</c:f>
+              <c:f>Sheet1!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,7 +802,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -820,7 +826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$7</c:f>
+              <c:f>Sheet1!$U$3:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1195,7 +1201,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1218,7 +1224,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$28:$M$32</c:f>
+              <c:f>Sheet1!$O$28:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1242,7 +1248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$28:$N$32</c:f>
+              <c:f>Sheet1!$P$28:$P$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1275,7 +1281,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1296,7 +1302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$28:$M$32</c:f>
+              <c:f>Sheet1!$O$28:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1320,7 +1326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$28:$O$32</c:f>
+              <c:f>Sheet1!$Q$28:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3320,13 +3326,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>587374</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
@@ -3356,13 +3362,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -3394,13 +3400,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>422275</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -3730,35 +3736,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="N1" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3769,58 +3777,64 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="3">
         <v>0.5</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <f>D5</f>
         <v>0.41322314049587133</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <f>D6</f>
         <v>3.4011443102352339</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>50</v>
       </c>
-      <c r="R3">
-        <f>F5</f>
+      <c r="T3">
+        <f>H5</f>
         <v>1.0334054313866858</v>
       </c>
-      <c r="S3">
-        <f>F6</f>
+      <c r="U3">
+        <f>H6</f>
         <v>2.759276879162702</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3828,38 +3842,41 @@
         <v>314.60000000000002</v>
       </c>
       <c r="E4">
+        <v>102.4</v>
+      </c>
+      <c r="G4">
         <v>4161</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>297</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>5118</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="3">
         <v>0.6</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f>D9</f>
         <v>0.6018371872030337</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f>D10</f>
         <v>2.3123218245169501</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>60</v>
       </c>
-      <c r="R4">
-        <f>F9</f>
+      <c r="T4">
+        <f>H9</f>
         <v>1.0938743038981702</v>
       </c>
-      <c r="S4">
-        <f>F10</f>
+      <c r="U4">
+        <f>H10</f>
         <v>0.82628369073381869</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -3871,46 +3888,49 @@
         <v>0.41322314049587133</v>
       </c>
       <c r="E5">
+        <v>102.2</v>
+      </c>
+      <c r="G5">
         <v>4204</v>
       </c>
-      <c r="F5">
-        <f>ABS(E4-E5)/E4*100</f>
+      <c r="H5">
+        <f>ABS(G4-G5)/G4*100</f>
         <v>1.0334054313866858</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>299.7</v>
       </c>
-      <c r="I5">
-        <f>ABS(H4-H5)/H4*100</f>
+      <c r="K5">
+        <f>ABS(J4-J5)/J4*100</f>
         <v>0.90909090909090517</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>5118</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="3">
         <v>0.7</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f>D13</f>
         <v>1.1808576755748947</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f>D14</f>
         <v>3.5425730267246847</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>70</v>
       </c>
-      <c r="R5">
-        <f>F13</f>
+      <c r="T5">
+        <f>H13</f>
         <v>0.92576718669638258</v>
       </c>
-      <c r="S5">
-        <f>F14</f>
+      <c r="U5">
+        <f>H14</f>
         <v>2.0553762527603192</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -3922,73 +3942,76 @@
         <v>3.4011443102352339</v>
       </c>
       <c r="E6">
+        <v>95.2</v>
+      </c>
+      <c r="G6">
         <v>4320</v>
       </c>
-      <c r="F6">
-        <f>ABS(E5-E6)/E5*100</f>
+      <c r="H6">
+        <f>ABS(G5-G6)/G5*100</f>
         <v>2.759276879162702</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>302.7</v>
       </c>
-      <c r="I6">
-        <f>ABS(H5-H6)/H5*100</f>
+      <c r="K6">
+        <f>ABS(J5-J6)/J5*100</f>
         <v>1.0010010010010011</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>5118</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="3">
         <v>0.8</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f>D17</f>
         <v>1.5534572037770402</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f>D18</f>
         <v>3.8684130368565302</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>80</v>
       </c>
-      <c r="R6">
-        <f>F17</f>
+      <c r="T6">
+        <f>H17</f>
         <v>1.7647953750190171</v>
       </c>
-      <c r="S6">
-        <f>F18</f>
+      <c r="U6">
+        <f>H18</f>
         <v>1.5248916130961279</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="3">
         <v>0.9</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f>D21</f>
         <v>1.4165159734779953</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f>D22</f>
         <v>3.737191078963241</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>90</v>
       </c>
-      <c r="R7">
-        <f>F21</f>
+      <c r="T7">
+        <f>H21</f>
         <v>1.5978334461746784</v>
       </c>
-      <c r="S7">
-        <f>F22</f>
+      <c r="U7">
+        <f>H22</f>
         <v>1.3194722111155539</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3996,25 +4019,28 @@
         <v>315.7</v>
       </c>
       <c r="E8">
+        <v>93.3</v>
+      </c>
+      <c r="G8">
         <v>5028</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>291.8</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>4105</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -4026,33 +4052,36 @@
         <v>0.6018371872030337</v>
       </c>
       <c r="E9">
+        <v>95.1</v>
+      </c>
+      <c r="G9">
         <v>5083</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F10" si="0">ABS(E8-E9)/E8*100</f>
+      <c r="H9">
+        <f t="shared" ref="H9:H10" si="0">ABS(G8-G9)/G8*100</f>
         <v>1.0938743038981702</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>294</v>
       </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I10" si="1">ABS(H8-H9)/H8*100</f>
+      <c r="K9">
+        <f t="shared" ref="K9:K10" si="1">ABS(J8-J9)/J8*100</f>
         <v>0.75394105551747381</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>4105</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -4064,47 +4093,50 @@
         <v>2.3123218245169501</v>
       </c>
       <c r="E10">
+        <v>95.8</v>
+      </c>
+      <c r="G10">
         <v>5125</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>0.82628369073381869</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>294.7</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>0.23809523809523422</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>4105</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>70</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -4112,25 +4144,28 @@
         <v>321.8</v>
       </c>
       <c r="E12">
+        <v>93.3</v>
+      </c>
+      <c r="G12">
         <v>5833</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>285.3</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>3116</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -4142,33 +4177,36 @@
         <v>1.1808576755748947</v>
       </c>
       <c r="E13">
+        <v>95.1</v>
+      </c>
+      <c r="G13">
         <v>5887</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F14" si="2">ABS(E12-E13)/E12*100</f>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="2">ABS(G12-G13)/G12*100</f>
         <v>0.92576718669638258</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>287.8</v>
       </c>
-      <c r="I13">
-        <f t="shared" ref="I13:I14" si="3">ABS(H12-H13)/H12*100</f>
+      <c r="K13">
+        <f t="shared" ref="K13:K14" si="3">ABS(J12-J13)/J12*100</f>
         <v>0.87627059235892046</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>3116</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -4180,47 +4218,50 @@
         <v>3.5425730267246847</v>
       </c>
       <c r="E14">
+        <v>95.8</v>
+      </c>
+      <c r="G14">
         <v>6008</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>2.0553762527603192</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>291.7</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>1.3551077136900547</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>3116</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>80</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -4228,25 +4269,28 @@
         <v>328.3</v>
       </c>
       <c r="E16">
+        <v>103.2</v>
+      </c>
+      <c r="G16">
         <v>6573</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>281.89999999999998</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>2078</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -4258,33 +4302,36 @@
         <v>1.5534572037770402</v>
       </c>
       <c r="E17">
+        <v>99.6</v>
+      </c>
+      <c r="G17">
         <v>6689</v>
       </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F18" si="4">ABS(E16-E17)/E16*100</f>
+      <c r="H17">
+        <f t="shared" ref="H17:H18" si="4">ABS(G16-G17)/G16*100</f>
         <v>1.7647953750190171</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>284.2</v>
       </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I18" si="5">ABS(H16-H17)/H16*100</f>
+      <c r="K17">
+        <f t="shared" ref="K17:K18" si="5">ABS(J16-J17)/J16*100</f>
         <v>0.81589216034055034</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>2078</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -4296,47 +4343,50 @@
         <v>3.8684130368565302</v>
       </c>
       <c r="E18">
+        <v>94.7</v>
+      </c>
+      <c r="G18">
         <v>6791</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <f t="shared" si="4"/>
         <v>1.5248916130961279</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>286.7</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <f t="shared" si="5"/>
         <v>0.87966220971147091</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>2078</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -4344,25 +4394,28 @@
         <v>331.8</v>
       </c>
       <c r="E20">
+        <v>103.4</v>
+      </c>
+      <c r="G20">
         <v>7385</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>275.5</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>1017</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -4374,33 +4427,36 @@
         <v>1.4165159734779953</v>
       </c>
       <c r="E21">
+        <v>100.3</v>
+      </c>
+      <c r="G21">
         <v>7503</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F22" si="6">ABS(E20-E21)/E20*100</f>
+      <c r="H21">
+        <f t="shared" ref="H21:H22" si="6">ABS(G20-G21)/G20*100</f>
         <v>1.5978334461746784</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>278.8</v>
       </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I22" si="7">ABS(H20-H21)/H20*100</f>
+      <c r="K21">
+        <f t="shared" ref="K21:K22" si="7">ABS(J20-J21)/J20*100</f>
         <v>1.1978221415608026</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>1017</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -4412,329 +4468,332 @@
         <v>3.737191078963241</v>
       </c>
       <c r="E22">
+        <v>95.6</v>
+      </c>
+      <c r="G22">
         <v>7602</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <f t="shared" si="6"/>
         <v>1.3194722111155539</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>280.60000000000002</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <f t="shared" si="7"/>
         <v>0.64562410329986064</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>1017</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N27" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
         <v>12</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M28" s="4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O28" s="3">
         <v>0.5</v>
       </c>
-      <c r="N28">
-        <f>I5</f>
+      <c r="P28">
+        <f>K5</f>
         <v>0.90909090909090517</v>
       </c>
-      <c r="O28">
-        <f>I6</f>
+      <c r="Q28">
+        <f>K6</f>
         <v>1.0010010010010011</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M29" s="4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O29" s="3">
         <v>0.6</v>
       </c>
-      <c r="N29">
-        <f>I6</f>
+      <c r="P29">
+        <f>K6</f>
         <v>1.0010010010010011</v>
       </c>
-      <c r="O29">
-        <f>I10</f>
+      <c r="Q29">
+        <f>K10</f>
         <v>0.23809523809523422</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M30" s="4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O30" s="3">
         <v>0.7</v>
       </c>
-      <c r="N30">
-        <f>I13</f>
+      <c r="P30">
+        <f>K13</f>
         <v>0.87627059235892046</v>
       </c>
-      <c r="O30">
-        <f>I14</f>
+      <c r="Q30">
+        <f>K14</f>
         <v>1.3551077136900547</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M31" s="4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O31" s="3">
         <v>0.8</v>
       </c>
-      <c r="N31">
-        <f>I17</f>
+      <c r="P31">
+        <f>K17</f>
         <v>0.81589216034055034</v>
       </c>
-      <c r="O31">
-        <f>I18</f>
+      <c r="Q31">
+        <f>K18</f>
         <v>0.87966220971147091</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M32" s="4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O32" s="3">
         <v>0.9</v>
       </c>
-      <c r="N32">
-        <f>I21</f>
+      <c r="P32">
+        <f>K21</f>
         <v>1.1978221415608026</v>
       </c>
-      <c r="O32">
-        <f>I22</f>
+      <c r="Q32">
+        <f>K22</f>
         <v>0.64562410329986064</v>
       </c>
     </row>
-    <row r="33" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
+    <row r="33" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
+    <row r="34" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
+    <row r="35" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
+    <row r="36" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+    <row r="37" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
+    <row r="38" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
+    <row r="39" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
+    <row r="40" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
+    <row r="41" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+    <row r="42" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
+    <row r="43" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+    <row r="44" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
+    <row r="45" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
+    <row r="46" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
+    <row r="47" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
+    <row r="48" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
+    <row r="49" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
+    <row r="50" spans="13:21" x14ac:dyDescent="0.35">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>base</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>stdev tt</t>
+  </si>
+  <si>
+    <t>Fixed Time</t>
   </si>
 </sst>
 </file>
@@ -693,494 +696,6 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$T$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$O$3:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$3:$T$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0334054313866858</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0938743038981702</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92576718669638258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7647953750190171</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5978334461746784</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-39A6-4C1F-ACD6-9A2F65B8060C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$U$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2i</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$O$3:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$3:$U$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.759276879162702</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82628369073381869</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0553762527603192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5248916130961279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3194722111155539</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-39A6-4C1F-ACD6-9A2F65B8060C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="304628224"/>
-        <c:axId val="304626912"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="304628224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Demand Ratio</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304626912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="304626912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Percent</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Decrease in Travel Time</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304628224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -1693,6 +1208,1135 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874017"/>
+          <c:y val="7.7622204899582214E-2"/>
+          <c:w val="0.82598350561630018"/>
+          <c:h val="0.67976982298792177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>314.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B603-42A7-8940-59A8E811F6AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traditional AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>313.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B603-42A7-8940-59A8E811F6AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2I AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BD5600"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>303.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>315.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B603-42A7-8940-59A8E811F6AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="304628224"/>
+        <c:axId val="304626912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304628224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304626912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304626912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Travel Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304628224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31145512024267114"/>
+          <c:y val="0.91279549455650633"/>
+          <c:w val="0.43893506202719923"/>
+          <c:h val="7.8305729025251153E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874017"/>
+          <c:y val="7.7622204899582214E-2"/>
+          <c:w val="0.82598350561630018"/>
+          <c:h val="0.67976982298792177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traditional AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19531250000000278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68493150684931781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1700288184438015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4883720930232642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9980657640232189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F929-460D-9478-0DD8B1637E36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2I AD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BD5600"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0312500000000027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3052837573385574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9731027857828982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2364341085271313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5435203094777661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F929-460D-9478-0DD8B1637E36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="304628224"/>
+        <c:axId val="304626912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304628224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304626912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304626912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304628224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30062235111606317"/>
+          <c:y val="0.91279549455650633"/>
+          <c:w val="0.39785236220472447"/>
+          <c:h val="6.8288130650335385E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1813,6 +2457,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3322,20 +4006,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>587374</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:colOff>431799</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3355,44 +4542,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E16FDA-4863-43A6-AE35-F7F02373D6AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3430,7 +4579,83 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E3E6C2-8FF3-4306-A472-22E2AF0EE982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF601A63-F6E6-424E-94CE-4ACA3E8482FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3736,15 +4961,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3765,8 +4990,11 @@
       <c r="T1" t="s">
         <v>11</v>
       </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3806,8 +5034,17 @@
       <c r="U2" t="s">
         <v>1</v>
       </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50</v>
       </c>
@@ -3833,8 +5070,23 @@
         <f>H6</f>
         <v>2.759276879162702</v>
       </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <f>C4</f>
+        <v>314.60000000000002</v>
+      </c>
+      <c r="Y3">
+        <f>C5</f>
+        <v>313.3</v>
+      </c>
+      <c r="Z3">
+        <f>C6</f>
+        <v>303.89999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3875,8 +5127,23 @@
         <f>H10</f>
         <v>0.82628369073381869</v>
       </c>
+      <c r="W4">
+        <v>0.6</v>
+      </c>
+      <c r="X4">
+        <f>C8</f>
+        <v>315.7</v>
+      </c>
+      <c r="Y4">
+        <f>C9</f>
+        <v>313.8</v>
+      </c>
+      <c r="Z4">
+        <f>C10</f>
+        <v>308.39999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -3890,6 +5157,10 @@
       <c r="E5">
         <v>102.2</v>
       </c>
+      <c r="F5">
+        <f>(E4-E5)/E4*100</f>
+        <v>0.19531250000000278</v>
+      </c>
       <c r="G5">
         <v>4204</v>
       </c>
@@ -3929,8 +5200,23 @@
         <f>H14</f>
         <v>2.0553762527603192</v>
       </c>
+      <c r="W5">
+        <v>0.7</v>
+      </c>
+      <c r="X5">
+        <f>C12</f>
+        <v>321.8</v>
+      </c>
+      <c r="Y5">
+        <f>C13</f>
+        <v>318</v>
+      </c>
+      <c r="Z5">
+        <f>C14</f>
+        <v>310.39999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -3944,6 +5230,10 @@
       <c r="E6">
         <v>95.2</v>
       </c>
+      <c r="F6">
+        <f>(E4-E6)/E4*100</f>
+        <v>7.0312500000000027</v>
+      </c>
       <c r="G6">
         <v>4320</v>
       </c>
@@ -3983,8 +5273,23 @@
         <f>H18</f>
         <v>1.5248916130961279</v>
       </c>
+      <c r="W6">
+        <v>0.8</v>
+      </c>
+      <c r="X6">
+        <f>C16</f>
+        <v>328.3</v>
+      </c>
+      <c r="Y6">
+        <f>C17</f>
+        <v>323.2</v>
+      </c>
+      <c r="Z6">
+        <f>C18</f>
+        <v>315.60000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60</v>
       </c>
@@ -4010,8 +5315,23 @@
         <f>H22</f>
         <v>1.3194722111155539</v>
       </c>
+      <c r="W7">
+        <v>0.9</v>
+      </c>
+      <c r="X7">
+        <f>C20</f>
+        <v>331.8</v>
+      </c>
+      <c r="Y7">
+        <f>C21</f>
+        <v>327.10000000000002</v>
+      </c>
+      <c r="Z7">
+        <f>C22</f>
+        <v>319.39999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -4019,7 +5339,7 @@
         <v>315.7</v>
       </c>
       <c r="E8">
-        <v>93.3</v>
+        <v>102.2</v>
       </c>
       <c r="G8">
         <v>5028</v>
@@ -4039,8 +5359,17 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -4052,20 +5381,24 @@
         <v>0.6018371872030337</v>
       </c>
       <c r="E9">
-        <v>95.1</v>
+        <v>101.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="0">(E8-E9)/E8*100</f>
+        <v>0.68493150684931781</v>
       </c>
       <c r="G9">
         <v>5083</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H10" si="0">ABS(G8-G9)/G8*100</f>
+        <f t="shared" ref="H9:H10" si="1">ABS(G8-G9)/G8*100</f>
         <v>1.0938743038981702</v>
       </c>
       <c r="J9">
         <v>294</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K10" si="1">ABS(J8-J9)/J8*100</f>
+        <f t="shared" ref="K9:K10" si="2">ABS(J8-J9)/J8*100</f>
         <v>0.75394105551747381</v>
       </c>
       <c r="L9">
@@ -4080,8 +5413,17 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -4093,20 +5435,24 @@
         <v>2.3123218245169501</v>
       </c>
       <c r="E10">
-        <v>95.8</v>
+        <v>97.8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="3">(E8-E10)/E8*100</f>
+        <v>4.3052837573385574</v>
       </c>
       <c r="G10">
         <v>5125</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82628369073381869</v>
       </c>
       <c r="J10">
         <v>294.7</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23809523809523422</v>
       </c>
       <c r="L10">
@@ -4121,8 +5467,17 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>70</v>
       </c>
@@ -4135,8 +5490,17 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -4144,7 +5508,7 @@
         <v>321.8</v>
       </c>
       <c r="E12">
-        <v>93.3</v>
+        <v>104.1</v>
       </c>
       <c r="G12">
         <v>5833</v>
@@ -4164,8 +5528,17 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -4177,20 +5550,24 @@
         <v>1.1808576755748947</v>
       </c>
       <c r="E13">
-        <v>95.1</v>
+        <v>100.8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="4">(E12-E13)/E12*100</f>
+        <v>3.1700288184438015</v>
       </c>
       <c r="G13">
         <v>5887</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H14" si="2">ABS(G12-G13)/G12*100</f>
+        <f t="shared" ref="H13:H14" si="5">ABS(G12-G13)/G12*100</f>
         <v>0.92576718669638258</v>
       </c>
       <c r="J13">
         <v>287.8</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K14" si="3">ABS(J12-J13)/J12*100</f>
+        <f t="shared" ref="K13:K14" si="6">ABS(J12-J13)/J12*100</f>
         <v>0.87627059235892046</v>
       </c>
       <c r="L13">
@@ -4205,8 +5582,17 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -4220,18 +5606,22 @@
       <c r="E14">
         <v>95.8</v>
       </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="7">(E12-E14)/E12*100</f>
+        <v>7.9731027857828982</v>
+      </c>
       <c r="G14">
         <v>6008</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0553762527603192</v>
       </c>
       <c r="J14">
         <v>291.7</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3551077136900547</v>
       </c>
       <c r="L14">
@@ -4246,8 +5636,17 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>80</v>
       </c>
@@ -4260,8 +5659,17 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -4289,8 +5697,17 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -4304,18 +5721,22 @@
       <c r="E17">
         <v>99.6</v>
       </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="8">(E16-E17)/E16*100</f>
+        <v>3.4883720930232642</v>
+      </c>
       <c r="G17">
         <v>6689</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="4">ABS(G16-G17)/G16*100</f>
+        <f t="shared" ref="H17:H18" si="9">ABS(G16-G17)/G16*100</f>
         <v>1.7647953750190171</v>
       </c>
       <c r="J17">
         <v>284.2</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K18" si="5">ABS(J16-J17)/J16*100</f>
+        <f t="shared" ref="K17:K18" si="10">ABS(J16-J17)/J16*100</f>
         <v>0.81589216034055034</v>
       </c>
       <c r="L17">
@@ -4330,8 +5751,17 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -4345,18 +5775,22 @@
       <c r="E18">
         <v>94.7</v>
       </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="11">(E16-E18)/E16*100</f>
+        <v>8.2364341085271313</v>
+      </c>
       <c r="G18">
         <v>6791</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5248916130961279</v>
       </c>
       <c r="J18">
         <v>286.7</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.87966220971147091</v>
       </c>
       <c r="L18">
@@ -4371,8 +5805,17 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90</v>
       </c>
@@ -4385,8 +5828,17 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -4414,8 +5866,17 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -4429,18 +5890,22 @@
       <c r="E21">
         <v>100.3</v>
       </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="12">(E20-E21)/E20*100</f>
+        <v>2.9980657640232189</v>
+      </c>
       <c r="G21">
         <v>7503</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H22" si="6">ABS(G20-G21)/G20*100</f>
+        <f t="shared" ref="H21:H22" si="13">ABS(G20-G21)/G20*100</f>
         <v>1.5978334461746784</v>
       </c>
       <c r="J21">
         <v>278.8</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K22" si="7">ABS(J20-J21)/J20*100</f>
+        <f t="shared" ref="K21:K22" si="14">ABS(J20-J21)/J20*100</f>
         <v>1.1978221415608026</v>
       </c>
       <c r="L21">
@@ -4455,8 +5920,17 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -4470,18 +5944,22 @@
       <c r="E22">
         <v>95.6</v>
       </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="15">(E20-E22)/E20*100</f>
+        <v>7.5435203094777661</v>
+      </c>
       <c r="G22">
         <v>7602</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3194722111155539</v>
       </c>
       <c r="J22">
         <v>280.60000000000002</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.64562410329986064</v>
       </c>
       <c r="L22">
@@ -4496,8 +5974,17 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -4507,8 +5994,17 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -4518,8 +6014,49 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <f>F5</f>
+        <v>0.19531250000000278</v>
+      </c>
+      <c r="D26">
+        <f>F6</f>
+        <v>7.0312500000000027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+      <c r="C27">
+        <f>F9</f>
+        <v>0.68493150684931781</v>
+      </c>
+      <c r="D27">
+        <f>F10</f>
+        <v>4.3052837573385574</v>
+      </c>
       <c r="P27" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +6064,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0.7</v>
+      </c>
+      <c r="C28">
+        <f>F13</f>
+        <v>3.1700288184438015</v>
+      </c>
+      <c r="D28">
+        <f>F14</f>
+        <v>7.9731027857828982</v>
+      </c>
       <c r="O28" s="3">
         <v>0.5</v>
       </c>
@@ -4540,7 +6088,18 @@
         <v>1.0010010010010011</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29">
+        <f>F17</f>
+        <v>3.4883720930232642</v>
+      </c>
+      <c r="D29">
+        <f>F18</f>
+        <v>8.2364341085271313</v>
+      </c>
       <c r="O29" s="3">
         <v>0.6</v>
       </c>
@@ -4553,7 +6112,18 @@
         <v>0.23809523809523422</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0.9</v>
+      </c>
+      <c r="C30">
+        <f>F21</f>
+        <v>2.9980657640232189</v>
+      </c>
+      <c r="D30">
+        <f>F22</f>
+        <v>7.5435203094777661</v>
+      </c>
       <c r="O30" s="3">
         <v>0.7</v>
       </c>
@@ -4566,7 +6136,7 @@
         <v>1.3551077136900547</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="O31" s="3">
         <v>0.8</v>
       </c>
@@ -4579,7 +6149,7 @@
         <v>0.87966220971147091</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="O32" s="3">
         <v>0.9</v>
       </c>

--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -248,19 +248,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.41322314049587133</c:v>
+                  <c:v>-0.41322314049587133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6018371872030337</c:v>
+                  <c:v>-0.6018371872030337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1808576755748947</c:v>
+                  <c:v>-1.1808576755748947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5534572037770402</c:v>
+                  <c:v>-1.5534572037770402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4165159734779953</c:v>
+                  <c:v>-1.4165159734779953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,19 +326,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4011443102352339</c:v>
+                  <c:v>-3.4011443102352339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3123218245169501</c:v>
+                  <c:v>-2.3123218245169501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5425730267246847</c:v>
+                  <c:v>-3.5425730267246847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8684130368565302</c:v>
+                  <c:v>-3.8684130368565302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.737191078963241</c:v>
+                  <c:v>-3.737191078963241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,7 +427,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -465,7 +465,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -473,6 +473,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
+          <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -524,7 +525,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percent</a:t>
+                  <a:t>Percent Change</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -947,7 +948,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -993,6 +994,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
+          <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1044,7 +1046,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percent</a:t>
+                  <a:t>Percent Change</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1089,7 +1091,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -1906,19 +1908,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.19531250000000278</c:v>
+                  <c:v>-0.19531250000000278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68493150684931781</c:v>
+                  <c:v>-0.68493150684931781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1700288184438015</c:v>
+                  <c:v>-3.1700288184438015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4883720930232642</c:v>
+                  <c:v>-3.4883720930232642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9980657640232189</c:v>
+                  <c:v>-2.9980657640232189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,19 +1986,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0312500000000027</c:v>
+                  <c:v>-7.0312500000000027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3052837573385574</c:v>
+                  <c:v>-4.3052837573385574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9731027857828982</c:v>
+                  <c:v>-7.9731027857828982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2364341085271313</c:v>
+                  <c:v>-8.2364341085271313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5435203094777661</c:v>
+                  <c:v>-7.5435203094777661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,7 +2087,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2183,6 +2185,11 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Percent</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Change</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4625,16 +4632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:colOff>122093</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4963,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5052,12 +5059,12 @@
         <v>0.5</v>
       </c>
       <c r="P3">
-        <f>D5</f>
-        <v>0.41322314049587133</v>
+        <f>-D5</f>
+        <v>-0.41322314049587133</v>
       </c>
       <c r="Q3">
-        <f>D6</f>
-        <v>3.4011443102352339</v>
+        <f>-D6</f>
+        <v>-3.4011443102352339</v>
       </c>
       <c r="S3">
         <v>50</v>
@@ -5109,12 +5116,12 @@
         <v>0.6</v>
       </c>
       <c r="P4">
-        <f>D9</f>
-        <v>0.6018371872030337</v>
+        <f>-D9</f>
+        <v>-0.6018371872030337</v>
       </c>
       <c r="Q4">
-        <f>D10</f>
-        <v>2.3123218245169501</v>
+        <f>-D10</f>
+        <v>-2.3123218245169501</v>
       </c>
       <c r="S4">
         <v>60</v>
@@ -5182,12 +5189,12 @@
         <v>0.7</v>
       </c>
       <c r="P5">
-        <f>D13</f>
-        <v>1.1808576755748947</v>
+        <f>-D13</f>
+        <v>-1.1808576755748947</v>
       </c>
       <c r="Q5">
-        <f>D14</f>
-        <v>3.5425730267246847</v>
+        <f>-D14</f>
+        <v>-3.5425730267246847</v>
       </c>
       <c r="S5">
         <v>70</v>
@@ -5255,12 +5262,12 @@
         <v>0.8</v>
       </c>
       <c r="P6">
-        <f>D17</f>
-        <v>1.5534572037770402</v>
+        <f>-D17</f>
+        <v>-1.5534572037770402</v>
       </c>
       <c r="Q6">
-        <f>D18</f>
-        <v>3.8684130368565302</v>
+        <f>-D18</f>
+        <v>-3.8684130368565302</v>
       </c>
       <c r="S6">
         <v>80</v>
@@ -5297,12 +5304,12 @@
         <v>0.9</v>
       </c>
       <c r="P7">
-        <f>D21</f>
-        <v>1.4165159734779953</v>
+        <f>-D21</f>
+        <v>-1.4165159734779953</v>
       </c>
       <c r="Q7">
-        <f>D22</f>
-        <v>3.737191078963241</v>
+        <f>-D22</f>
+        <v>-3.737191078963241</v>
       </c>
       <c r="S7">
         <v>90</v>
@@ -6037,12 +6044,12 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <f>F5</f>
-        <v>0.19531250000000278</v>
+        <f>-F5</f>
+        <v>-0.19531250000000278</v>
       </c>
       <c r="D26">
-        <f>F6</f>
-        <v>7.0312500000000027</v>
+        <f>-F6</f>
+        <v>-7.0312500000000027</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
@@ -6050,12 +6057,12 @@
         <v>0.6</v>
       </c>
       <c r="C27">
-        <f>F9</f>
-        <v>0.68493150684931781</v>
+        <f>-F9</f>
+        <v>-0.68493150684931781</v>
       </c>
       <c r="D27">
-        <f>F10</f>
-        <v>4.3052837573385574</v>
+        <f>-F10</f>
+        <v>-4.3052837573385574</v>
       </c>
       <c r="P27" t="s">
         <v>12</v>
@@ -6069,12 +6076,12 @@
         <v>0.7</v>
       </c>
       <c r="C28">
-        <f>F13</f>
-        <v>3.1700288184438015</v>
+        <f>-F13</f>
+        <v>-3.1700288184438015</v>
       </c>
       <c r="D28">
-        <f>F14</f>
-        <v>7.9731027857828982</v>
+        <f>-F14</f>
+        <v>-7.9731027857828982</v>
       </c>
       <c r="O28" s="3">
         <v>0.5</v>
@@ -6093,12 +6100,12 @@
         <v>0.8</v>
       </c>
       <c r="C29">
-        <f>F17</f>
-        <v>3.4883720930232642</v>
+        <f>-F17</f>
+        <v>-3.4883720930232642</v>
       </c>
       <c r="D29">
-        <f>F18</f>
-        <v>8.2364341085271313</v>
+        <f>-F18</f>
+        <v>-8.2364341085271313</v>
       </c>
       <c r="O29" s="3">
         <v>0.6</v>
@@ -6117,12 +6124,12 @@
         <v>0.9</v>
       </c>
       <c r="C30">
-        <f>F21</f>
-        <v>2.9980657640232189</v>
+        <f>-F21</f>
+        <v>-2.9980657640232189</v>
       </c>
       <c r="D30">
-        <f>F22</f>
-        <v>7.5435203094777661</v>
+        <f>-F22</f>
+        <v>-7.5435203094777661</v>
       </c>
       <c r="O30" s="3">
         <v>0.7</v>
